--- a/lab_2_telecom-Probability of Limited channel.xlsx
+++ b/lab_2_telecom-Probability of Limited channel.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\telecommunication_lab\telecommunication_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,19 +997,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>151087</xdr:colOff>
+      <xdr:colOff>59121</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>72258</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>486103</xdr:colOff>
+      <xdr:colOff>394137</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>109157</xdr:rowOff>
+      <xdr:rowOff>36899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1307,15 +1318,15 @@
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.76393977620350795</v>
+        <v>0.53180198068756801</v>
       </c>
       <c r="D3">
         <f ca="1">-12*LN(1-C3)</f>
-        <v>17.324019851189668</v>
+        <v>9.1063674523775013</v>
       </c>
       <c r="E3">
         <f ca="1">D3</f>
-        <v>17.324019851189668</v>
+        <v>9.1063674523775013</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -1327,15 +1338,15 @@
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4">
         <f t="shared" ref="C4:C67" ca="1" si="0">RAND()</f>
-        <v>0.71860018373566314</v>
+        <v>9.0739858378882876E-2</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" ca="1" si="1">-12*LN(1-C4)</f>
-        <v>15.215745446834255</v>
+        <v>1.1414884961512055</v>
       </c>
       <c r="E4">
         <f ca="1">E3+D4</f>
-        <v>32.539765298023923</v>
+        <v>10.247855948528708</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1348,15 +1359,15 @@
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40763033914841496</v>
+        <v>0.59818421681642475</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2834929422895112</v>
+        <v>10.941138554150662</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E68" ca="1" si="2">E4+D5</f>
-        <v>38.823258240313436</v>
+        <v>21.188994502679371</v>
       </c>
       <c r="G5">
         <f>100+G4</f>
@@ -1370,15 +1381,15 @@
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97069096511142494</v>
+        <v>0.2206927844691855</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>42.358313430237821</v>
+        <v>2.9921992702272564</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>81.18157167055125</v>
+        <v>24.181193772906628</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G69" si="3">100+G5</f>
@@ -1392,15 +1403,15 @@
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66760451015800393</v>
+        <v>2.7433818305902635E-2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>13.217157414703344</v>
+        <v>0.33380583178994971</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>94.398729085254587</v>
+        <v>24.514999604696577</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
@@ -1414,15 +1425,15 @@
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90589372777083255</v>
+        <v>0.59183855412429065</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>28.359966956153286</v>
+        <v>10.753109786052994</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>122.75869604140787</v>
+        <v>35.268109390749572</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
@@ -1436,15 +1447,15 @@
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45083800433685295</v>
+        <v>0.837452599127257</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1923416831688085</v>
+        <v>21.801427464833072</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>129.95103772457668</v>
+        <v>57.069536855582641</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
@@ -1458,15 +1469,15 @@
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47826616995727378</v>
+        <v>0.34352016936393359</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8071727033303358</v>
+        <v>5.0503596993150088</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>137.75821042790702</v>
+        <v>62.11989655489765</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
@@ -1480,15 +1491,15 @@
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68387131049173133</v>
+        <v>0.55386690425687235</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>13.819270836212947</v>
+        <v>9.6856554063843721</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>151.57748126411997</v>
+        <v>71.805551961282021</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -1502,15 +1513,15 @@
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8185759666309473E-2</v>
+        <v>0.43898274070944232</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97693860499926199</v>
+        <v>6.9360433045064402</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>152.55441986911924</v>
+        <v>78.741595265788462</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -1524,15 +1535,15 @@
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74071733124432726</v>
+        <v>0.93246106885934688</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>16.198037127040472</v>
+        <v>32.340613076701317</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>168.75245699615971</v>
+        <v>111.08220834248978</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
@@ -1546,15 +1557,15 @@
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55689691778378336</v>
+        <v>0.57395116824684145</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7674341372689533</v>
+        <v>10.238415729042877</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>178.51989113342867</v>
+        <v>121.32062407153265</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -1568,15 +1579,15 @@
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32318844645203615</v>
+        <v>4.0774950081086669E-2</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6843487998887419</v>
+        <v>0.49955472217731256</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>183.20423993331741</v>
+        <v>121.82017879370996</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
@@ -1590,15 +1601,15 @@
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18385713752693278</v>
+        <v>0.76701150161229381</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4379903533841327</v>
+        <v>17.48119427733274</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>185.64223028670153</v>
+        <v>139.30137307104269</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
@@ -1612,15 +1623,15 @@
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9602233597787491E-2</v>
+        <v>0.90212168888384314</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73742804971436593</v>
+        <v>27.888363542319112</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>186.3796583364159</v>
+        <v>167.18973661336179</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
@@ -1634,15 +1645,15 @@
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9639933250832885</v>
+        <v>0.6064995848567708</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.888611320320564</v>
+        <v>11.19207787348059</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>226.26826965673646</v>
+        <v>178.38181448684239</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
@@ -1656,15 +1667,15 @@
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42016619063271121</v>
+        <v>0.64736258681670822</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5401650248936765</v>
+        <v>12.507778896698923</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>232.80843468163013</v>
+        <v>190.8895933835413</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
@@ -1678,15 +1689,15 @@
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2472853338200085</v>
+        <v>0.98610175228131058</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4088286284395486</v>
+        <v>51.311910122349474</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>236.21726331006968</v>
+        <v>242.20150350589077</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
@@ -1700,15 +1711,15 @@
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86791396721040948</v>
+        <v>0.63838881499327871</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>24.291621661726634</v>
+        <v>12.206228627458625</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>260.50888497179631</v>
+        <v>254.40773213334938</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -1722,15 +1733,15 @@
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42224599971879184</v>
+        <v>0.85959243949087438</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5832852714612944</v>
+        <v>23.558471268722119</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>267.09217024325761</v>
+        <v>277.96620340207153</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
@@ -1744,15 +1755,15 @@
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88952278134673901</v>
+        <v>0.16745116845923624</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>26.435351343759663</v>
+        <v>2.1991608281081012</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>293.5275215870173</v>
+        <v>280.16536423017965</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
@@ -1766,15 +1777,15 @@
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87827839289632592</v>
+        <v>0.19139302376513856</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>25.272225009083716</v>
+        <v>2.5493075311829019</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>318.79974659610104</v>
+        <v>282.71467176136252</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
@@ -1788,15 +1799,15 @@
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5772248838262829</v>
+        <v>0.47489724457053817</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.330978578694861</v>
+        <v>7.7299357309743959</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>329.13072517479588</v>
+        <v>290.4446074923369</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -1810,15 +1821,15 @@
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84301646616457604</v>
+        <v>0.91334910068515685</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>22.219372309959248</v>
+        <v>29.350414610024963</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>351.35009748475511</v>
+        <v>319.79502210236188</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
@@ -1832,15 +1843,15 @@
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27187078368601192</v>
+        <v>0.15597876322562687</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8073210191882021</v>
+        <v>2.0349314717735361</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>355.15741850394329</v>
+        <v>321.8299535741354</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
@@ -1854,15 +1865,15 @@
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40157898504611</v>
+        <v>0.8087509963751538</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1615288123900207</v>
+        <v>19.850148193125463</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>361.31894731633332</v>
+        <v>341.68010176726085</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
@@ -1876,15 +1887,15 @@
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7766119692244029</v>
+        <v>0.66188893216196454</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>17.986139655974032</v>
+        <v>13.012570012874065</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>379.30508697230738</v>
+        <v>354.6926717801349</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
@@ -1898,15 +1909,15 @@
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19768377499217238</v>
+        <v>0.27406948775871665</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6430294397043026</v>
+        <v>3.8436117828529772</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>381.9481164120117</v>
+        <v>358.53628356298788</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
@@ -1920,15 +1931,15 @@
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2543374971216092E-2</v>
+        <v>0.99729606457391529</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77501746612642597</v>
+        <v>70.956564023668847</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>382.72313387813813</v>
+        <v>429.49284758665669</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -1942,15 +1953,15 @@
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27344324887262172</v>
+        <v>0.22955477426881277</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8332641986939864</v>
+        <v>3.1294405920134132</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>386.55639807683212</v>
+        <v>432.62228817867009</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -1964,15 +1975,15 @@
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56871166134616891</v>
+        <v>0.58841299248472867</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>10.091740960341269</v>
+        <v>10.652818095887671</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>396.64813903717339</v>
+        <v>443.27510627455774</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -1986,15 +1997,15 @@
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16301818363020781</v>
+        <v>0.50186005501124442</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1354352019510552</v>
+        <v>8.362490728810636</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>398.78357423912445</v>
+        <v>451.6375970033684</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
@@ -2008,15 +2019,15 @@
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75292876002459652</v>
+        <v>0.85681704122912294</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>16.77694275583724</v>
+        <v>23.323584414404145</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>415.56051699496169</v>
+        <v>474.96118141777254</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
@@ -2030,15 +2041,15 @@
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23432551942979951</v>
+        <v>0.55129877640451286</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2039779158455621</v>
+        <v>9.6167764682987489</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>418.76449491080723</v>
+        <v>484.57795788607126</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
@@ -2052,15 +2063,15 @@
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97853525942178698</v>
+        <v>6.7743325486488759E-2</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>46.09612395819407</v>
+        <v>0.84176520448967451</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>464.86061886900131</v>
+        <v>485.41972309056092</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
@@ -2074,15 +2085,15 @@
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81800966337406655</v>
+        <v>0.17491246208324207</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>20.445620265322315</v>
+        <v>2.3071895005271084</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>485.30623913432362</v>
+        <v>487.72691259108802</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
@@ -2096,15 +2107,15 @@
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68264173078742418</v>
+        <v>0.18511341998694864</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>13.772687477936284</v>
+        <v>2.4564760926464002</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>499.07892661225992</v>
+        <v>490.18338868373445</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
@@ -2118,15 +2129,15 @@
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21380142679628367</v>
+        <v>0.81248227976651677</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8865505695602791</v>
+        <v>20.086583161504226</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>501.96547718182018</v>
+        <v>510.26997184523867</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
@@ -2140,15 +2151,15 @@
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59501006589769478</v>
+        <v>0.22225012949147105</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>10.846716795034171</v>
+        <v>3.0162037163926199</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>512.81219397685436</v>
+        <v>513.28617556163124</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
@@ -2162,15 +2173,15 @@
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35173825740345199</v>
+        <v>0.16866165026761704</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2015288850999841</v>
+        <v>2.2166208872114983</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>518.01372286195431</v>
+        <v>515.50279644884279</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
@@ -2184,15 +2195,15 @@
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38675065011458098</v>
+        <v>0.12492090087546592</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8678038714907554</v>
+        <v>1.6012919725295811</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>523.88152673344507</v>
+        <v>517.10408842137235</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
@@ -2206,15 +2217,15 @@
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69229861985722729</v>
+        <v>0.92340592303726721</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>14.14350613574787</v>
+        <v>30.830826353658878</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>538.02503286919296</v>
+        <v>547.93491477503119</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
@@ -2228,15 +2239,15 @@
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76632746417273934</v>
+        <v>0.62373603396212007</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>17.446014759216872</v>
+        <v>11.729572134844696</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>555.47104762840979</v>
+        <v>559.6644869098759</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
@@ -2250,15 +2261,15 @@
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4817250212587969</v>
+        <v>0.67814946891985928</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8869919669760087</v>
+        <v>13.604016364787913</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>563.35803959538578</v>
+        <v>573.26850327466377</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
@@ -2272,15 +2283,15 @@
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28237959533858925</v>
+        <v>0.50480161803583246</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>3.981774408627913</v>
+        <v>8.433561900674027</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>567.33981400401365</v>
+        <v>581.70206517533779</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
@@ -2294,15 +2305,15 @@
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21417968446576541</v>
+        <v>0.59676904260074237</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8923254265341996</v>
+        <v>10.898949430899878</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>570.23213943054782</v>
+        <v>592.60101460623764</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
@@ -2316,15 +2327,15 @@
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35776743661403188</v>
+        <v>0.49166614934160902</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3136575114818774</v>
+        <v>8.1194023310473753</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>575.54579694202971</v>
+        <v>600.72041693728499</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
@@ -2338,15 +2349,15 @@
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71112527306566298</v>
+        <v>0.51319444025465011</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>14.901145867929358</v>
+        <v>8.6386859631449529</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>590.44694280995907</v>
+        <v>609.35910290043</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
@@ -2360,15 +2371,15 @@
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7107479004316638</v>
+        <v>0.42943921716917899</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>14.885479851257708</v>
+        <v>6.7336268672263921</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>605.33242266121681</v>
+        <v>616.09272976765635</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
@@ -2382,15 +2393,15 @@
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35231916292083465</v>
+        <v>0.98584014206805293</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2122868720429185</v>
+        <v>51.088130685857763</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>610.54470953325972</v>
+        <v>667.18086045351413</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
@@ -2404,15 +2415,15 @@
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76503793884296201</v>
+        <v>0.12036947169706669</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>17.379974637072799</v>
+        <v>1.5390397664946029</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>627.92468417033251</v>
+        <v>668.71990022000875</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
@@ -2426,15 +2437,15 @@
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33719110392711793</v>
+        <v>0.13082071697682141</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9352228587575731</v>
+        <v>1.6824703850131</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>632.8599070290901</v>
+        <v>670.40237060502182</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
@@ -2448,15 +2459,15 @@
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8968600556684274E-2</v>
+        <v>0.9207784935670339</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47697836192745902</v>
+        <v>30.426089653834559</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>633.33688539101752</v>
+        <v>700.82846025885635</v>
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
@@ -2470,15 +2481,15 @@
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86033747991649678</v>
+        <v>0.17991624656270222</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
-        <v>23.622316047701226</v>
+        <v>2.3801856672172219</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>656.95920143871876</v>
+        <v>703.20864592607359</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
@@ -2492,15 +2503,15 @@
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97135201642037494</v>
+        <v>0.63041599400319759</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
-        <v>42.632066633558139</v>
+        <v>11.944526567629463</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>699.59126807227688</v>
+        <v>715.1531724937031</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
@@ -2514,15 +2525,15 @@
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1317714722056581</v>
+        <v>0.19042100286274288</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
-        <v>1.695603817260664</v>
+        <v>2.5348910766794042</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>701.28687188953757</v>
+        <v>717.6880635703825</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
@@ -2536,15 +2547,15 @@
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52289684251299318</v>
+        <v>0.76446966318176512</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
-        <v>8.880270580797573</v>
+        <v>17.35098666073208</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>710.16714247033519</v>
+        <v>735.03905023111463</v>
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
@@ -2558,15 +2569,15 @@
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5894729679566465</v>
+        <v>0.12221626453765377</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
-        <v>10.683762009017126</v>
+        <v>1.5642603678083096</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>720.85090447935227</v>
+        <v>736.60331059892292</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
@@ -2580,15 +2591,15 @@
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31137542887910497</v>
+        <v>0.80285576575287043</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4767085519336112</v>
+        <v>19.485835975188845</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>725.32761303128586</v>
+        <v>756.08914657411174</v>
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
@@ -2602,15 +2613,15 @@
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69749669143949233</v>
+        <v>0.34871728170628769</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
-        <v>14.347956770171351</v>
+        <v>5.1457373754470037</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>739.67556980145719</v>
+        <v>761.23488394955871</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
@@ -2624,15 +2635,15 @@
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1388622135014147</v>
+        <v>0.34551342617479996</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7940090789773182</v>
+        <v>5.0868504897437754</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>741.46957888043448</v>
+        <v>766.32173443930253</v>
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
@@ -2646,15 +2657,15 @@
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46625976376283818</v>
+        <v>0.61855230912590942</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5341520884486046</v>
+        <v>11.565378624147439</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>749.00373096888313</v>
+        <v>777.88711306344999</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
@@ -2668,15 +2679,15 @@
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47200386893012858</v>
+        <v>0.37762978824964955</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6639958738628593</v>
+        <v>5.6906420107389106</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>756.66772684274599</v>
+        <v>783.57775507418887</v>
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
@@ -2690,15 +2701,15 @@
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24480038364690593</v>
+        <v>0.49072326530483912</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3692780658960122</v>
+        <v>8.0971647249492218</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>760.03700490864196</v>
+        <v>791.67491979913814</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
@@ -2712,15 +2723,15 @@
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41476224551450291</v>
+        <v>3.5996777303219707E-2</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4288451567009801</v>
+        <v>0.43992769596872183</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>766.46585006534292</v>
+        <v>792.11484749510691</v>
       </c>
       <c r="G67">
         <f t="shared" si="3"/>
@@ -2734,15 +2745,15 @@
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68">
         <f t="shared" ref="C68:C104" ca="1" si="5">RAND()</f>
-        <v>0.49199979716562769</v>
+        <v>0.3197167935479075</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D104" ca="1" si="6">-12*LN(1-C68)</f>
-        <v>8.127281185481694</v>
+        <v>4.6229530492695892</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>774.59313125082463</v>
+        <v>796.73780054437646</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
@@ -2756,15 +2767,15 @@
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3634251630329316</v>
+        <v>0.81820096390853758</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="6"/>
-        <v>5.419839505712603</v>
+        <v>20.458240791359685</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:E104" ca="1" si="7">E68+D69</f>
-        <v>780.01297075653724</v>
+        <v>817.19604133573614</v>
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
@@ -2778,15 +2789,15 @@
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10911614683498039</v>
+        <v>0.78876808873267923</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3864945872380636</v>
+        <v>18.657583722576113</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="7"/>
-        <v>781.39946534377532</v>
+        <v>835.85362505831222</v>
       </c>
       <c r="G70">
         <f t="shared" ref="G70:G104" si="8">100+G69</f>
@@ -2800,15 +2811,15 @@
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22083316476873649</v>
+        <v>0.36068729874340022</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9943610817740627</v>
+        <v>5.3683390075602899</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="7"/>
-        <v>784.39382642554938</v>
+        <v>841.2219640658725</v>
       </c>
       <c r="G71">
         <f t="shared" si="8"/>
@@ -2822,15 +2833,15 @@
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81386844830283567</v>
+        <v>0.4229897163640115</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="6"/>
-        <v>20.175619056905397</v>
+        <v>6.5987422804818836</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="7"/>
-        <v>804.56944548245474</v>
+        <v>847.82070634635443</v>
       </c>
       <c r="G72">
         <f t="shared" si="8"/>
@@ -2844,15 +2855,15 @@
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63848619887975444</v>
+        <v>0.48089073484642508</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="6"/>
-        <v>12.209460728871779</v>
+        <v>7.8676906537629847</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="7"/>
-        <v>816.77890621132656</v>
+        <v>855.68839700011745</v>
       </c>
       <c r="G73">
         <f t="shared" si="8"/>
@@ -2866,15 +2877,15 @@
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93605027611891367</v>
+        <v>0.52349973781092052</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="6"/>
-        <v>32.995896824374327</v>
+        <v>8.8954440677834441</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="7"/>
-        <v>849.77480303570087</v>
+        <v>864.58384106790095</v>
       </c>
       <c r="G74">
         <f t="shared" si="8"/>
@@ -2888,15 +2899,15 @@
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9187673972739532E-2</v>
+        <v>0.24380197725521302</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2535000592103098</v>
+        <v>3.3534240270473421</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="7"/>
-        <v>851.02830309491117</v>
+        <v>867.93726509494832</v>
       </c>
       <c r="G75">
         <f t="shared" si="8"/>
@@ -2910,15 +2921,15 @@
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25172250031560517</v>
+        <v>0.4817440288757</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4797765710896713</v>
+        <v>7.8874320723156366</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="7"/>
-        <v>854.50807966600087</v>
+        <v>875.82469716726393</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
@@ -2932,15 +2943,15 @@
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35794716122694381</v>
+        <v>0.81948464445803149</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3170161035290908</v>
+        <v>20.54327319087561</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="7"/>
-        <v>859.82509576952998</v>
+        <v>896.36797035813959</v>
       </c>
       <c r="G77">
         <f t="shared" si="8"/>
@@ -2954,15 +2965,15 @@
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66010320075000384</v>
+        <v>0.24497039097084472</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="6"/>
-        <v>12.949358868775601</v>
+        <v>3.3719797589391547</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="7"/>
-        <v>872.77445463830554</v>
+        <v>899.73995011707871</v>
       </c>
       <c r="G78">
         <f t="shared" si="8"/>
@@ -2976,15 +2987,15 @@
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10394227901303299</v>
+        <v>0.2900840357798592</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3170053680530096</v>
+        <v>4.1113041144627154</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="7"/>
-        <v>874.0914600063586</v>
+        <v>903.85125423154147</v>
       </c>
       <c r="G79">
         <f t="shared" si="8"/>
@@ -2998,15 +3009,15 @@
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34309740316949677</v>
+        <v>0.24306435608105548</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0426343111837761</v>
+        <v>3.3417245255610677</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="7"/>
-        <v>879.13409431754235</v>
+        <v>907.19297875710254</v>
       </c>
       <c r="G80">
         <f t="shared" si="8"/>
@@ -3020,15 +3031,15 @@
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4261414872554965</v>
+        <v>0.69185538017465908</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6644688782826655</v>
+        <v>14.126232735873572</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="7"/>
-        <v>885.79856319582507</v>
+        <v>921.31921149297614</v>
       </c>
       <c r="G81">
         <f t="shared" si="8"/>
@@ -3042,15 +3053,15 @@
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53294065812793934</v>
+        <v>0.46211621168415318</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1355875079537547</v>
+        <v>7.4413529880127234</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="7"/>
-        <v>894.93415070377887</v>
+        <v>928.76056448098882</v>
       </c>
       <c r="G82">
         <f t="shared" si="8"/>
@@ -3064,15 +3075,15 @@
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74244388349661383</v>
+        <v>0.11055355610596385</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>16.278211853433003</v>
+        <v>1.4058717949711472</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="7"/>
-        <v>911.21236255721192</v>
+        <v>930.16643627596</v>
       </c>
       <c r="G83">
         <f t="shared" si="8"/>
@@ -3086,15 +3097,15 @@
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65374092103853421</v>
+        <v>0.13261935132942326</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>12.726816011964129</v>
+        <v>1.707328288913085</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="7"/>
-        <v>923.93917856917608</v>
+        <v>931.87376456487311</v>
       </c>
       <c r="G84">
         <f t="shared" si="8"/>
@@ -3108,15 +3119,15 @@
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88576653633043934</v>
+        <v>0.76113011213743176</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>26.034131973664834</v>
+        <v>17.182035330480037</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="7"/>
-        <v>949.97331054284086</v>
+        <v>949.05579989535318</v>
       </c>
       <c r="G85">
         <f t="shared" si="8"/>
@@ -3130,15 +3141,15 @@
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99543950538894299</v>
+        <v>0.58954111510540752</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>64.683890328011216</v>
+        <v>10.685754164473483</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="7"/>
-        <v>1014.6572008708521</v>
+        <v>959.74155405982663</v>
       </c>
       <c r="G86">
         <f t="shared" si="8"/>
@@ -3152,15 +3163,15 @@
     <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55374749442604432</v>
+        <v>0.24770555110106507</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6824439740699688</v>
+        <v>3.4155297273939613</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="7"/>
-        <v>1024.3396448449221</v>
+        <v>963.15708378722059</v>
       </c>
       <c r="G87">
         <f t="shared" si="8"/>
@@ -3174,15 +3185,15 @@
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89592954658024326</v>
+        <v>0.92170893511053342</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>27.152246069628209</v>
+        <v>30.567861555561244</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="7"/>
-        <v>1051.4918909145504</v>
+        <v>993.72494534278178</v>
       </c>
       <c r="G88">
         <f t="shared" si="8"/>
@@ -3196,15 +3207,15 @@
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18152668644237691</v>
+        <v>0.1789928598133631</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4037738414321375</v>
+        <v>2.3666816715464472</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="7"/>
-        <v>1053.8956647559826</v>
+        <v>996.0916270143282</v>
       </c>
       <c r="G89">
         <f t="shared" si="8"/>
@@ -3218,15 +3229,15 @@
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49645041735758932</v>
+        <v>0.66402797951664072</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2328771486257093</v>
+        <v>13.088728738286687</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="7"/>
-        <v>1062.1285419046083</v>
+        <v>1009.1803557526149</v>
       </c>
       <c r="G90">
         <f t="shared" si="8"/>
@@ -3240,15 +3251,15 @@
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67030270695933292</v>
+        <v>0.20402434020261684</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>13.314964071710401</v>
+        <v>2.7382400609911923</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="7"/>
-        <v>1075.4435059763186</v>
+        <v>1011.9185958136061</v>
       </c>
       <c r="G91">
         <f t="shared" si="8"/>
@@ -3262,15 +3273,15 @@
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90860452014874904</v>
+        <v>1.8350812546434336E-2</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>28.710711075917402</v>
+        <v>0.22225532847720156</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="7"/>
-        <v>1104.1542170522362</v>
+        <v>1012.1408511420833</v>
       </c>
       <c r="G92">
         <f t="shared" si="8"/>
@@ -3284,15 +3295,15 @@
     <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58091070742410778</v>
+        <v>0.52951969367414053</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>10.436055275897228</v>
+        <v>9.0480141328613506</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="7"/>
-        <v>1114.5902723281333</v>
+        <v>1021.1888652749446</v>
       </c>
       <c r="G93">
         <f t="shared" si="8"/>
@@ -3306,15 +3317,15 @@
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61208501081676914</v>
+        <v>0.8139982186157726</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>11.363628760896049</v>
+        <v>20.183988335762905</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="7"/>
-        <v>1125.9539010890294</v>
+        <v>1041.3728536107076</v>
       </c>
       <c r="G94">
         <f t="shared" si="8"/>
@@ -3328,15 +3339,15 @@
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6877578057757342</v>
+        <v>0.46567392285474629</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>13.96771354524062</v>
+        <v>7.520987940279074</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="7"/>
-        <v>1139.9216146342701</v>
+        <v>1048.8938415509867</v>
       </c>
       <c r="G95">
         <f t="shared" si="8"/>
@@ -3350,15 +3361,15 @@
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0129375656157347E-2</v>
+        <v>0.5276169346824634</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1221723224900145</v>
+        <v>8.9995805218345772</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="7"/>
-        <v>1140.0437869567602</v>
+        <v>1057.8934220728213</v>
       </c>
       <c r="G96">
         <f t="shared" si="8"/>
@@ -3372,15 +3383,15 @@
     <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99322416577712558</v>
+        <v>0.70864719306827029</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>59.932713447227641</v>
+        <v>14.798644214562188</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="7"/>
-        <v>1199.9765004039878</v>
+        <v>1072.6920662873836</v>
       </c>
       <c r="G97">
         <f t="shared" si="8"/>
@@ -3394,15 +3405,15 @@
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50936207709601522</v>
+        <v>0.6384102415294477</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5445862133852284</v>
+        <v>12.206939684147425</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="7"/>
-        <v>1208.5210866173729</v>
+        <v>1084.8990059715311</v>
       </c>
       <c r="G98">
         <f t="shared" si="8"/>
@@ -3416,15 +3427,15 @@
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15547185499590077</v>
+        <v>0.95617743745319095</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0277265904652486</v>
+        <v>37.531277611109303</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>1210.5488132078381</v>
+        <v>1122.4302835826404</v>
       </c>
       <c r="G99">
         <f t="shared" si="8"/>
@@ -3438,15 +3449,15 @@
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.932508178806567</v>
+        <v>0.10055912535230638</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="6"/>
-        <v>32.348986271396697</v>
+        <v>1.2717835092631657</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>1242.8977994792347</v>
+        <v>1123.7020670919035</v>
       </c>
       <c r="G100">
         <f t="shared" si="8"/>
@@ -3460,15 +3471,15 @@
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25377373820602167</v>
+        <v>0.12548297964837718</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5127170972711106</v>
+        <v>1.6090022611292172</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>1246.4105165765059</v>
+        <v>1125.3110693530327</v>
       </c>
       <c r="G101">
         <f t="shared" si="8"/>
@@ -3482,15 +3493,15 @@
     <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93236717941799241</v>
+        <v>0.54936202166159687</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="6"/>
-        <v>32.323942826251994</v>
+        <v>9.5650916472803189</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="7"/>
-        <v>1278.7344594027579</v>
+        <v>1134.876161000313</v>
       </c>
       <c r="G102">
         <f t="shared" si="8"/>
@@ -3504,15 +3515,15 @@
     <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14938388299467475</v>
+        <v>0.10252063250751564</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="6"/>
-        <v>1.941532182411587</v>
+        <v>1.297981773003166</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="7"/>
-        <v>1280.6759915851694</v>
+        <v>1136.1741427733161</v>
       </c>
       <c r="G103">
         <f t="shared" si="8"/>
@@ -3526,15 +3537,15 @@
     <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71595965153928476</v>
+        <v>0.48248365261131809</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="6"/>
-        <v>15.103667746409233</v>
+        <v>7.9045699822159978</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="7"/>
-        <v>1295.7796593315786</v>
+        <v>1144.078712755532</v>
       </c>
       <c r="G104">
         <f t="shared" si="8"/>
@@ -3555,7 +3566,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,10 +3575,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -3583,10 +3590,14 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -3655,7 +3666,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F12" si="2">1+F6</f>
+        <f t="shared" ref="F7:F11" si="2">1+F6</f>
         <v>4</v>
       </c>
       <c r="G7">
@@ -3748,7 +3759,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="H1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G11">
     <cfRule type="dataBar" priority="1">
